--- a/Data_sources/AnalyticsJobs&Salary.xlsx
+++ b/Data_sources/AnalyticsJobs&Salary.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tableau\Data_sources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>SNo.</t>
   </si>
@@ -74,25 +82,31 @@
   <si>
     <t>8,00,000 - 12,00,000</t>
   </si>
+  <si>
+    <t>Tableau Developer</t>
+  </si>
+  <si>
+    <t>8,00,000 - 12,00,001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -102,7 +116,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -111,8 +125,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
-    <border/>
+  <borders count="18">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -126,6 +146,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -140,6 +161,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -152,6 +174,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -166,6 +189,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -174,9 +198,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -185,17 +211,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -204,9 +235,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -221,6 +254,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -235,17 +269,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -260,6 +297,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -274,6 +312,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -288,17 +327,20 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -313,83 +355,93 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -579,28 +631,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="21.5"/>
-    <col customWidth="1" min="3" max="3" width="29.25"/>
-    <col customWidth="1" min="4" max="4" width="19.88"/>
-    <col customWidth="1" min="5" max="5" width="9.25"/>
-    <col customWidth="1" min="6" max="26" width="7.63"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,9 +671,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -631,12 +685,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="8">
-        <v>700000.0</v>
+        <v>700000</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>8</v>
@@ -648,12 +702,12 @@
         <v>10</v>
       </c>
       <c r="E3" s="12">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -665,12 +719,12 @@
         <v>12</v>
       </c>
       <c r="E4" s="12">
-        <v>1200000.0</v>
+        <v>1200000</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -682,12 +736,12 @@
         <v>15</v>
       </c>
       <c r="E5" s="12">
-        <v>1600000.0</v>
+        <v>1600000</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>16</v>
@@ -699,12 +753,12 @@
         <v>17</v>
       </c>
       <c r="E6" s="12">
-        <v>1100000.0</v>
+        <v>1100000</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>18</v>
@@ -716,5987 +770,5990 @@
         <v>19</v>
       </c>
       <c r="E7" s="16">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="17"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9">
+    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="E12" s="18"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="E13" s="18"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="E15" s="18"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="E19" s="18"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="E36" s="18"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="E37" s="18"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="E39" s="18"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="E40" s="18"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="E41" s="18"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="E42" s="18"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="E43" s="18"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="E44" s="18"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="E49" s="18"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="E62" s="18"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="E63" s="18"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="E64" s="18"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="E65" s="18"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="E67" s="18"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="E70" s="18"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="E71" s="18"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
       <c r="E72" s="18"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="E73" s="18"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="E74" s="18"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="E75" s="18"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="E76" s="18"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="E77" s="18"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="E78" s="18"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="E79" s="18"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="E81" s="18"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="E83" s="18"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="E84" s="18"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="E85" s="18"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="E86" s="18"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="E87" s="18"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="E88" s="18"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="E89" s="18"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="E90" s="18"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="E91" s="18"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="E92" s="18"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="E93" s="18"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="E94" s="18"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="E95" s="18"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="E96" s="18"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="E97" s="18"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="E98" s="18"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="E99" s="18"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="E100" s="18"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="E101" s="18"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
       <c r="E102" s="18"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="E103" s="18"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="E104" s="18"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="E105" s="18"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="E106" s="18"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
       <c r="E107" s="18"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="E108" s="18"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="E109" s="18"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="E110" s="18"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="E111" s="18"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="E112" s="18"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="E113" s="18"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="E114" s="18"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
       <c r="E115" s="18"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="E116" s="18"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="E117" s="18"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="E118" s="18"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17"/>
       <c r="E119" s="18"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="E120" s="18"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="E121" s="18"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="E122" s="18"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="E123" s="18"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="E124" s="18"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="E125" s="18"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17"/>
       <c r="E126" s="18"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="E127" s="18"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="E128" s="18"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="E129" s="18"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="E130" s="18"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="E131" s="18"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="E132" s="18"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="E133" s="18"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="E134" s="18"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="E135" s="18"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="17"/>
       <c r="E136" s="18"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="E137" s="18"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="E138" s="18"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="E139" s="18"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="E140" s="18"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="E141" s="18"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="E142" s="18"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="E143" s="18"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="E144" s="18"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="E145" s="18"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="E146" s="18"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="E147" s="18"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="E148" s="18"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="E149" s="18"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="E150" s="18"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
       <c r="E151" s="18"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="E152" s="18"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
       <c r="E153" s="18"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="E154" s="18"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="E155" s="18"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="17"/>
       <c r="E156" s="18"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="E157" s="18"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="E158" s="18"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="E159" s="18"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="E160" s="18"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="E161" s="18"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="E162" s="18"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="E163" s="18"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="E164" s="18"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="E165" s="18"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="E166" s="18"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="17"/>
       <c r="E167" s="18"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="E168" s="18"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="E169" s="18"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="E170" s="18"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="E171" s="18"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="E172" s="18"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="E173" s="18"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="E174" s="18"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="E175" s="18"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="E176" s="18"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="E177" s="18"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="17"/>
       <c r="E178" s="18"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="E179" s="18"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="E180" s="18"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="E181" s="18"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="E182" s="18"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="17"/>
       <c r="E183" s="18"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="E184" s="18"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="E185" s="18"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="E186" s="18"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="E187" s="18"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="17"/>
       <c r="E188" s="18"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="E189" s="18"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="E190" s="18"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="17"/>
       <c r="E191" s="18"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="E192" s="18"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="E193" s="18"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="E194" s="18"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="E195" s="18"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="E196" s="18"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="17"/>
       <c r="E197" s="18"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="E198" s="18"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="E199" s="18"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="E200" s="18"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="E201" s="18"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="E202" s="18"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="E203" s="18"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="E204" s="18"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="E205" s="18"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="E206" s="18"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="17"/>
       <c r="E207" s="18"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="E208" s="18"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="E209" s="18"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="E210" s="18"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="E211" s="18"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="E212" s="18"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="E213" s="18"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="E214" s="18"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="E215" s="18"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="E216" s="18"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="17"/>
       <c r="E217" s="18"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="E218" s="18"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="E219" s="18"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="E220" s="18"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="E221" s="18"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="E222" s="18"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="E223" s="18"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="E224" s="18"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="E225" s="18"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="E226" s="18"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="E227" s="18"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="E228" s="18"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="E229" s="18"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="E230" s="18"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="E231" s="18"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="E232" s="18"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="E233" s="18"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="17"/>
       <c r="E234" s="18"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="E235" s="18"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="E236" s="18"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="E237" s="18"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="E238" s="18"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="E239" s="18"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="E240" s="18"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="E241" s="18"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="E242" s="18"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="E243" s="18"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="E244" s="18"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="E245" s="18"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="E246" s="18"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="E247" s="18"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="E248" s="18"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="E249" s="18"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="E250" s="18"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="17"/>
       <c r="E251" s="18"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="E252" s="18"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="E253" s="18"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="E254" s="18"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="E255" s="18"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="E256" s="18"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="17"/>
       <c r="E257" s="18"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="E258" s="18"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="E259" s="18"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
       <c r="E260" s="18"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
       <c r="E261" s="18"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
       <c r="E262" s="18"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="E263" s="18"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="E264" s="18"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="E265" s="18"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="E266" s="18"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="E267" s="18"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="E268" s="18"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="E269" s="18"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="E270" s="18"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="E271" s="18"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="E272" s="18"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="E273" s="18"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="17"/>
       <c r="E274" s="18"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="E275" s="18"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
       <c r="E276" s="18"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="E277" s="18"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="E278" s="18"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="E279" s="18"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="E280" s="18"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="E281" s="18"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="E282" s="18"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="E283" s="18"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="E284" s="18"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="E285" s="18"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="E286" s="18"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="E287" s="18"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
       <c r="E288" s="18"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="E289" s="18"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
       <c r="E290" s="18"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="E291" s="18"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
       <c r="E292" s="18"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="E293" s="18"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="17"/>
       <c r="E294" s="18"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="E295" s="18"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="17"/>
       <c r="E296" s="18"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="E297" s="18"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="17"/>
       <c r="E298" s="18"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="E299" s="18"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="E300" s="18"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="E301" s="18"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="E302" s="18"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="E303" s="18"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="E304" s="18"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="E305" s="18"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="E306" s="18"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="E307" s="18"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
       <c r="E308" s="18"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="E309" s="18"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="E310" s="18"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="E311" s="18"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="E312" s="18"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="17"/>
       <c r="E313" s="18"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="E314" s="18"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="E315" s="18"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="E316" s="18"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="17"/>
       <c r="E317" s="18"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="E318" s="18"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="E319" s="18"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="17"/>
       <c r="E320" s="18"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="E321" s="18"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="E322" s="18"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="E323" s="18"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
       <c r="E324" s="18"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
       <c r="E325" s="18"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="E326" s="18"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="E327" s="18"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="17"/>
       <c r="E328" s="18"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="17"/>
       <c r="E329" s="18"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="17"/>
       <c r="E330" s="18"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="17"/>
       <c r="E331" s="18"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="17"/>
       <c r="E332" s="18"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="17"/>
       <c r="E333" s="18"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="17"/>
       <c r="E334" s="18"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
       <c r="E335" s="18"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
       <c r="E336" s="18"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
       <c r="E337" s="18"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
       <c r="E338" s="18"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
       <c r="E339" s="18"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="17"/>
       <c r="E340" s="18"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
       <c r="E341" s="18"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="17"/>
       <c r="E342" s="18"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="17"/>
       <c r="E343" s="18"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="E344" s="18"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
       <c r="E345" s="18"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="17"/>
       <c r="E346" s="18"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
       <c r="E347" s="18"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="17"/>
       <c r="E348" s="18"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
       <c r="E349" s="18"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="17"/>
       <c r="E350" s="18"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
       <c r="E351" s="18"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="17"/>
       <c r="E352" s="18"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
       <c r="E353" s="18"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="17"/>
       <c r="E354" s="18"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="17"/>
       <c r="E355" s="18"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="17"/>
       <c r="E356" s="18"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="17"/>
       <c r="E357" s="18"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
       <c r="E358" s="18"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
       <c r="E359" s="18"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
       <c r="E360" s="18"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
       <c r="E361" s="18"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="E362" s="18"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="17"/>
       <c r="E363" s="18"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="17"/>
       <c r="E364" s="18"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="17"/>
       <c r="E365" s="18"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="17"/>
       <c r="E366" s="18"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
       <c r="E367" s="18"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
       <c r="E368" s="18"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
       <c r="E369" s="18"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="17"/>
       <c r="E370" s="18"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="17"/>
       <c r="E371" s="18"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="17"/>
       <c r="E372" s="18"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="17"/>
       <c r="E373" s="18"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="17"/>
       <c r="E374" s="18"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="17"/>
       <c r="E375" s="18"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="17"/>
       <c r="E376" s="18"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="17"/>
       <c r="E377" s="18"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="17"/>
       <c r="E378" s="18"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="17"/>
       <c r="E379" s="18"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="17"/>
       <c r="E380" s="18"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="17"/>
       <c r="E381" s="18"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="17"/>
       <c r="E382" s="18"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="17"/>
       <c r="E383" s="18"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="17"/>
       <c r="E384" s="18"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="17"/>
       <c r="E385" s="18"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="17"/>
       <c r="E386" s="18"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="17"/>
       <c r="E387" s="18"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="17"/>
       <c r="E388" s="18"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="17"/>
       <c r="E389" s="18"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="17"/>
       <c r="E390" s="18"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="17"/>
       <c r="E391" s="18"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
       <c r="E392" s="18"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
       <c r="E393" s="18"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
       <c r="E394" s="18"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="17"/>
       <c r="E395" s="18"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="17"/>
       <c r="E396" s="18"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="17"/>
       <c r="E397" s="18"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="17"/>
       <c r="E398" s="18"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="17"/>
       <c r="E399" s="18"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="17"/>
       <c r="E400" s="18"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="17"/>
       <c r="E401" s="18"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="17"/>
       <c r="E402" s="18"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="17"/>
       <c r="E403" s="18"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="17"/>
       <c r="E404" s="18"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="17"/>
       <c r="E405" s="18"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="17"/>
       <c r="E406" s="18"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="17"/>
       <c r="E407" s="18"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="17"/>
       <c r="E408" s="18"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="17"/>
       <c r="E409" s="18"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="17"/>
       <c r="E410" s="18"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="17"/>
       <c r="E411" s="18"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="17"/>
       <c r="E412" s="18"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="17"/>
       <c r="E413" s="18"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
       <c r="E414" s="18"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="17"/>
       <c r="E415" s="18"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="17"/>
       <c r="E416" s="18"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="17"/>
       <c r="E417" s="18"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="17"/>
       <c r="E418" s="18"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="17"/>
       <c r="E419" s="18"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="17"/>
       <c r="E420" s="18"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="17"/>
       <c r="E421" s="18"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="17"/>
       <c r="E422" s="18"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="17"/>
       <c r="E423" s="18"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="17"/>
       <c r="E424" s="18"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="17"/>
       <c r="E425" s="18"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="17"/>
       <c r="E426" s="18"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="17"/>
       <c r="E427" s="18"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="17"/>
       <c r="E428" s="18"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="17"/>
       <c r="E429" s="18"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="17"/>
       <c r="E430" s="18"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="17"/>
       <c r="E431" s="18"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="17"/>
       <c r="E432" s="18"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="17"/>
       <c r="E433" s="18"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="17"/>
       <c r="E434" s="18"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="17"/>
       <c r="E435" s="18"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="17"/>
       <c r="E436" s="18"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="17"/>
       <c r="E437" s="18"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="17"/>
       <c r="E438" s="18"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="17"/>
       <c r="E439" s="18"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="17"/>
       <c r="E440" s="18"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="17"/>
       <c r="E441" s="18"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="17"/>
       <c r="E442" s="18"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="17"/>
       <c r="E443" s="18"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="17"/>
       <c r="E444" s="18"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="17"/>
       <c r="E445" s="18"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="17"/>
       <c r="E446" s="18"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="17"/>
       <c r="E447" s="18"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="17"/>
       <c r="E448" s="18"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="17"/>
       <c r="E449" s="18"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="17"/>
       <c r="E450" s="18"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="17"/>
       <c r="E451" s="18"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="17"/>
       <c r="E452" s="18"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="17"/>
       <c r="E453" s="18"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="17"/>
       <c r="E454" s="18"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="17"/>
       <c r="E455" s="18"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="17"/>
       <c r="E456" s="18"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="17"/>
       <c r="E457" s="18"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="17"/>
       <c r="E458" s="18"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="17"/>
       <c r="E459" s="18"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="17"/>
       <c r="E460" s="18"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="17"/>
       <c r="E461" s="18"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="17"/>
       <c r="E462" s="18"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="17"/>
       <c r="E463" s="18"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="17"/>
       <c r="E464" s="18"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="17"/>
       <c r="E465" s="18"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="17"/>
       <c r="E466" s="18"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="17"/>
       <c r="E467" s="18"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="17"/>
       <c r="E468" s="18"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="17"/>
       <c r="E469" s="18"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="17"/>
       <c r="E470" s="18"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="17"/>
       <c r="E471" s="18"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="17"/>
       <c r="E472" s="18"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="17"/>
       <c r="E473" s="18"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="17"/>
       <c r="E474" s="18"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="17"/>
       <c r="E475" s="18"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="17"/>
       <c r="E476" s="18"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="17"/>
       <c r="E477" s="18"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="17"/>
       <c r="E478" s="18"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="17"/>
       <c r="E479" s="18"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="17"/>
       <c r="E480" s="18"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="17"/>
       <c r="E481" s="18"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="17"/>
       <c r="E482" s="18"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="17"/>
       <c r="E483" s="18"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="17"/>
       <c r="E484" s="18"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="17"/>
       <c r="E485" s="18"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="17"/>
       <c r="E486" s="18"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="17"/>
       <c r="E487" s="18"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="17"/>
       <c r="E488" s="18"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="17"/>
       <c r="E489" s="18"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="17"/>
       <c r="E490" s="18"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="17"/>
       <c r="E491" s="18"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="17"/>
       <c r="E492" s="18"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="17"/>
       <c r="E493" s="18"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="17"/>
       <c r="E494" s="18"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="17"/>
       <c r="E495" s="18"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="17"/>
       <c r="E496" s="18"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="17"/>
       <c r="E497" s="18"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="17"/>
       <c r="E498" s="18"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="17"/>
       <c r="E499" s="18"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="17"/>
       <c r="E500" s="18"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="17"/>
       <c r="E501" s="18"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="17"/>
       <c r="E502" s="18"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="17"/>
       <c r="E503" s="18"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="17"/>
       <c r="E504" s="18"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="17"/>
       <c r="E505" s="18"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="17"/>
       <c r="E506" s="18"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="17"/>
       <c r="E507" s="18"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="17"/>
       <c r="E508" s="18"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="17"/>
       <c r="E509" s="18"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="17"/>
       <c r="E510" s="18"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="17"/>
       <c r="E511" s="18"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="17"/>
       <c r="E512" s="18"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="17"/>
       <c r="E513" s="18"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="17"/>
       <c r="E514" s="18"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="17"/>
       <c r="E515" s="18"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="17"/>
       <c r="E516" s="18"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="17"/>
       <c r="E517" s="18"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="17"/>
       <c r="E518" s="18"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="17"/>
       <c r="E519" s="18"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="17"/>
       <c r="E520" s="18"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="17"/>
       <c r="E521" s="18"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="17"/>
       <c r="E522" s="18"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="17"/>
       <c r="E523" s="18"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="17"/>
       <c r="E524" s="18"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="17"/>
       <c r="E525" s="18"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="17"/>
       <c r="E526" s="18"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="17"/>
       <c r="E527" s="18"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="17"/>
       <c r="E528" s="18"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="17"/>
       <c r="E529" s="18"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="17"/>
       <c r="E530" s="18"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="17"/>
       <c r="E531" s="18"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="17"/>
       <c r="E532" s="18"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="17"/>
       <c r="E533" s="18"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="17"/>
       <c r="E534" s="18"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="17"/>
       <c r="E535" s="18"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="17"/>
       <c r="E536" s="18"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="17"/>
       <c r="E537" s="18"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="17"/>
       <c r="E538" s="18"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="17"/>
       <c r="E539" s="18"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="17"/>
       <c r="E540" s="18"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="17"/>
       <c r="E541" s="18"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="17"/>
       <c r="E542" s="18"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="17"/>
       <c r="E543" s="18"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="17"/>
       <c r="E544" s="18"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="17"/>
       <c r="E545" s="18"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="17"/>
       <c r="E546" s="18"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="17"/>
       <c r="E547" s="18"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="17"/>
       <c r="E548" s="18"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="17"/>
       <c r="E549" s="18"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="17"/>
       <c r="E550" s="18"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="17"/>
       <c r="E551" s="18"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="17"/>
       <c r="E552" s="18"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="17"/>
       <c r="E553" s="18"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="17"/>
       <c r="E554" s="18"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="17"/>
       <c r="E555" s="18"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="17"/>
       <c r="E556" s="18"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="17"/>
       <c r="E557" s="18"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="17"/>
       <c r="E558" s="18"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="17"/>
       <c r="E559" s="18"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="17"/>
       <c r="E560" s="18"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="17"/>
       <c r="E561" s="18"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="17"/>
       <c r="E562" s="18"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="17"/>
       <c r="E563" s="18"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="17"/>
       <c r="E564" s="18"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="17"/>
       <c r="E565" s="18"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="17"/>
       <c r="E566" s="18"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="17"/>
       <c r="E567" s="18"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="17"/>
       <c r="E568" s="18"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="17"/>
       <c r="E569" s="18"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="17"/>
       <c r="E570" s="18"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="17"/>
       <c r="E571" s="18"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="17"/>
       <c r="E572" s="18"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="17"/>
       <c r="E573" s="18"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="17"/>
       <c r="E574" s="18"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="17"/>
       <c r="E575" s="18"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="17"/>
       <c r="E576" s="18"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="17"/>
       <c r="E577" s="18"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="17"/>
       <c r="E578" s="18"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="17"/>
       <c r="E579" s="18"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="17"/>
       <c r="E580" s="18"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="17"/>
       <c r="E581" s="18"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="17"/>
       <c r="E582" s="18"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="17"/>
       <c r="E583" s="18"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="17"/>
       <c r="E584" s="18"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="17"/>
       <c r="E585" s="18"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="17"/>
       <c r="E586" s="18"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="17"/>
       <c r="E587" s="18"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="17"/>
       <c r="E588" s="18"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="17"/>
       <c r="E589" s="18"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="17"/>
       <c r="E590" s="18"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="17"/>
       <c r="E591" s="18"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="17"/>
       <c r="E592" s="18"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="17"/>
       <c r="E593" s="18"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="17"/>
       <c r="E594" s="18"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="17"/>
       <c r="E595" s="18"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="17"/>
       <c r="E596" s="18"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="17"/>
       <c r="E597" s="18"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="17"/>
       <c r="E598" s="18"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="17"/>
       <c r="E599" s="18"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="17"/>
       <c r="E600" s="18"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="17"/>
       <c r="E601" s="18"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="17"/>
       <c r="E602" s="18"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="17"/>
       <c r="E603" s="18"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="17"/>
       <c r="E604" s="18"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="17"/>
       <c r="E605" s="18"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="17"/>
       <c r="E606" s="18"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="17"/>
       <c r="E607" s="18"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="17"/>
       <c r="E608" s="18"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="17"/>
       <c r="E609" s="18"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="17"/>
       <c r="E610" s="18"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="17"/>
       <c r="E611" s="18"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="17"/>
       <c r="E612" s="18"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="17"/>
       <c r="E613" s="18"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="17"/>
       <c r="E614" s="18"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="17"/>
       <c r="E615" s="18"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="17"/>
       <c r="E616" s="18"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="17"/>
       <c r="E617" s="18"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="17"/>
       <c r="E618" s="18"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="17"/>
       <c r="E619" s="18"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="17"/>
       <c r="E620" s="18"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="17"/>
       <c r="E621" s="18"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="17"/>
       <c r="E622" s="18"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="17"/>
       <c r="E623" s="18"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="17"/>
       <c r="E624" s="18"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="17"/>
       <c r="E625" s="18"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="17"/>
       <c r="E626" s="18"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="17"/>
       <c r="E627" s="18"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="17"/>
       <c r="E628" s="18"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="17"/>
       <c r="E629" s="18"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="17"/>
       <c r="E630" s="18"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="17"/>
       <c r="E631" s="18"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="17"/>
       <c r="E632" s="18"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="17"/>
       <c r="E633" s="18"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="17"/>
       <c r="E634" s="18"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="17"/>
       <c r="E635" s="18"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="17"/>
       <c r="E636" s="18"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="17"/>
       <c r="E637" s="18"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="17"/>
       <c r="E638" s="18"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="17"/>
       <c r="E639" s="18"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="17"/>
       <c r="E640" s="18"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="17"/>
       <c r="E641" s="18"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="17"/>
       <c r="E642" s="18"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="17"/>
       <c r="E643" s="18"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="17"/>
       <c r="E644" s="18"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="17"/>
       <c r="E645" s="18"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="17"/>
       <c r="E646" s="18"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="17"/>
       <c r="E647" s="18"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="17"/>
       <c r="E648" s="18"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="17"/>
       <c r="E649" s="18"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="17"/>
       <c r="E650" s="18"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="17"/>
       <c r="E651" s="18"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="17"/>
       <c r="E652" s="18"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="17"/>
       <c r="E653" s="18"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="17"/>
       <c r="E654" s="18"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="17"/>
       <c r="E655" s="18"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="17"/>
       <c r="E656" s="18"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="17"/>
       <c r="E657" s="18"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="17"/>
       <c r="E658" s="18"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="17"/>
       <c r="E659" s="18"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="17"/>
       <c r="E660" s="18"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="17"/>
       <c r="E661" s="18"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="17"/>
       <c r="E662" s="18"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="17"/>
       <c r="E663" s="18"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="17"/>
       <c r="E664" s="18"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="17"/>
       <c r="E665" s="18"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="17"/>
       <c r="E666" s="18"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="17"/>
       <c r="E667" s="18"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="17"/>
       <c r="E668" s="18"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="17"/>
       <c r="E669" s="18"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="17"/>
       <c r="E670" s="18"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="17"/>
       <c r="E671" s="18"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="17"/>
       <c r="E672" s="18"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="17"/>
       <c r="E673" s="18"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="17"/>
       <c r="E674" s="18"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="17"/>
       <c r="E675" s="18"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="17"/>
       <c r="E676" s="18"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="17"/>
       <c r="E677" s="18"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="17"/>
       <c r="E678" s="18"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="17"/>
       <c r="E679" s="18"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="17"/>
       <c r="E680" s="18"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="17"/>
       <c r="E681" s="18"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="17"/>
       <c r="E682" s="18"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="17"/>
       <c r="E683" s="18"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="17"/>
       <c r="E684" s="18"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="17"/>
       <c r="E685" s="18"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="17"/>
       <c r="E686" s="18"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="17"/>
       <c r="E687" s="18"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="17"/>
       <c r="E688" s="18"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="17"/>
       <c r="E689" s="18"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="17"/>
       <c r="E690" s="18"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="17"/>
       <c r="E691" s="18"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="17"/>
       <c r="E692" s="18"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="17"/>
       <c r="E693" s="18"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="17"/>
       <c r="E694" s="18"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="17"/>
       <c r="E695" s="18"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="17"/>
       <c r="E696" s="18"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="17"/>
       <c r="E697" s="18"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="17"/>
       <c r="E698" s="18"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="17"/>
       <c r="E699" s="18"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="17"/>
       <c r="E700" s="18"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="17"/>
       <c r="E701" s="18"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="17"/>
       <c r="E702" s="18"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="17"/>
       <c r="E703" s="18"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="17"/>
       <c r="E704" s="18"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="17"/>
       <c r="E705" s="18"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="17"/>
       <c r="E706" s="18"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="17"/>
       <c r="E707" s="18"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="17"/>
       <c r="E708" s="18"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="17"/>
       <c r="E709" s="18"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="17"/>
       <c r="E710" s="18"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="17"/>
       <c r="E711" s="18"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="17"/>
       <c r="E712" s="18"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="17"/>
       <c r="E713" s="18"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="17"/>
       <c r="E714" s="18"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="17"/>
       <c r="E715" s="18"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="17"/>
       <c r="E716" s="18"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="17"/>
       <c r="E717" s="18"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="17"/>
       <c r="E718" s="18"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="17"/>
       <c r="E719" s="18"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="17"/>
       <c r="E720" s="18"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="17"/>
       <c r="E721" s="18"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="17"/>
       <c r="E722" s="18"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="17"/>
       <c r="E723" s="18"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="17"/>
       <c r="E724" s="18"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="17"/>
       <c r="E725" s="18"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="17"/>
       <c r="E726" s="18"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="17"/>
       <c r="E727" s="18"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="17"/>
       <c r="E728" s="18"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="17"/>
       <c r="E729" s="18"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="17"/>
       <c r="E730" s="18"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="17"/>
       <c r="E731" s="18"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="17"/>
       <c r="E732" s="18"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="17"/>
       <c r="E733" s="18"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="17"/>
       <c r="E734" s="18"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="17"/>
       <c r="E735" s="18"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="17"/>
       <c r="E736" s="18"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="17"/>
       <c r="E737" s="18"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="17"/>
       <c r="E738" s="18"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="17"/>
       <c r="E739" s="18"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="17"/>
       <c r="E740" s="18"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="17"/>
       <c r="E741" s="18"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="17"/>
       <c r="E742" s="18"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="17"/>
       <c r="E743" s="18"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="17"/>
       <c r="E744" s="18"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="17"/>
       <c r="E745" s="18"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="17"/>
       <c r="E746" s="18"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="17"/>
       <c r="E747" s="18"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="17"/>
       <c r="E748" s="18"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="17"/>
       <c r="E749" s="18"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="17"/>
       <c r="E750" s="18"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="17"/>
       <c r="E751" s="18"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="17"/>
       <c r="E752" s="18"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="17"/>
       <c r="E753" s="18"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="17"/>
       <c r="E754" s="18"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="17"/>
       <c r="E755" s="18"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="17"/>
       <c r="E756" s="18"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="17"/>
       <c r="E757" s="18"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="17"/>
       <c r="E758" s="18"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="17"/>
       <c r="E759" s="18"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="17"/>
       <c r="E760" s="18"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="17"/>
       <c r="E761" s="18"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="17"/>
       <c r="E762" s="18"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="17"/>
       <c r="E763" s="18"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="17"/>
       <c r="E764" s="18"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="17"/>
       <c r="E765" s="18"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="17"/>
       <c r="E766" s="18"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="17"/>
       <c r="E767" s="18"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="17"/>
       <c r="E768" s="18"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="17"/>
       <c r="E769" s="18"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="17"/>
       <c r="E770" s="18"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="17"/>
       <c r="E771" s="18"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="17"/>
       <c r="E772" s="18"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="17"/>
       <c r="E773" s="18"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="17"/>
       <c r="E774" s="18"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="17"/>
       <c r="E775" s="18"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="17"/>
       <c r="E776" s="18"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="17"/>
       <c r="E777" s="18"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="17"/>
       <c r="E778" s="18"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="17"/>
       <c r="E779" s="18"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="17"/>
       <c r="E780" s="18"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="17"/>
       <c r="E781" s="18"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="17"/>
       <c r="E782" s="18"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="17"/>
       <c r="E783" s="18"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="17"/>
       <c r="E784" s="18"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="17"/>
       <c r="E785" s="18"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="17"/>
       <c r="E786" s="18"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="17"/>
       <c r="E787" s="18"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="17"/>
       <c r="E788" s="18"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="17"/>
       <c r="E789" s="18"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="17"/>
       <c r="E790" s="18"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="17"/>
       <c r="E791" s="18"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="17"/>
       <c r="E792" s="18"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="17"/>
       <c r="E793" s="18"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="17"/>
       <c r="E794" s="18"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="17"/>
       <c r="E795" s="18"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="17"/>
       <c r="E796" s="18"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="17"/>
       <c r="E797" s="18"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="17"/>
       <c r="E798" s="18"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="17"/>
       <c r="E799" s="18"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="17"/>
       <c r="E800" s="18"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="17"/>
       <c r="E801" s="18"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="17"/>
       <c r="E802" s="18"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="17"/>
       <c r="E803" s="18"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="17"/>
       <c r="E804" s="18"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="17"/>
       <c r="E805" s="18"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="17"/>
       <c r="E806" s="18"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="17"/>
       <c r="E807" s="18"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="17"/>
       <c r="E808" s="18"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="17"/>
       <c r="E809" s="18"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="17"/>
       <c r="E810" s="18"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="17"/>
       <c r="E811" s="18"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="17"/>
       <c r="E812" s="18"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="17"/>
       <c r="E813" s="18"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="17"/>
       <c r="E814" s="18"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="17"/>
       <c r="E815" s="18"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="17"/>
       <c r="E816" s="18"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="17"/>
       <c r="E817" s="18"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="17"/>
       <c r="E818" s="18"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="17"/>
       <c r="E819" s="18"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="17"/>
       <c r="E820" s="18"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="17"/>
       <c r="E821" s="18"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="17"/>
       <c r="E822" s="18"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="17"/>
       <c r="E823" s="18"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="17"/>
       <c r="E824" s="18"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="17"/>
       <c r="E825" s="18"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="17"/>
       <c r="E826" s="18"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="17"/>
       <c r="E827" s="18"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="17"/>
       <c r="E828" s="18"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="17"/>
       <c r="E829" s="18"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="17"/>
       <c r="E830" s="18"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="17"/>
       <c r="E831" s="18"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="17"/>
       <c r="E832" s="18"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="17"/>
       <c r="E833" s="18"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="17"/>
       <c r="E834" s="18"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="17"/>
       <c r="E835" s="18"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="17"/>
       <c r="E836" s="18"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="17"/>
       <c r="E837" s="18"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="17"/>
       <c r="E838" s="18"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="17"/>
       <c r="E839" s="18"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="17"/>
       <c r="E840" s="18"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="17"/>
       <c r="E841" s="18"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="17"/>
       <c r="E842" s="18"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="17"/>
       <c r="E843" s="18"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="17"/>
       <c r="E844" s="18"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="17"/>
       <c r="E845" s="18"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="17"/>
       <c r="E846" s="18"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="17"/>
       <c r="E847" s="18"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="17"/>
       <c r="E848" s="18"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="17"/>
       <c r="E849" s="18"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="17"/>
       <c r="E850" s="18"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="17"/>
       <c r="E851" s="18"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="17"/>
       <c r="E852" s="18"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="17"/>
       <c r="E853" s="18"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="17"/>
       <c r="E854" s="18"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="17"/>
       <c r="E855" s="18"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="17"/>
       <c r="E856" s="18"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="17"/>
       <c r="E857" s="18"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="17"/>
       <c r="E858" s="18"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="17"/>
       <c r="E859" s="18"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="17"/>
       <c r="E860" s="18"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="17"/>
       <c r="E861" s="18"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="17"/>
       <c r="E862" s="18"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="17"/>
       <c r="E863" s="18"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="17"/>
       <c r="E864" s="18"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="17"/>
       <c r="E865" s="18"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="17"/>
       <c r="E866" s="18"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="17"/>
       <c r="E867" s="18"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="17"/>
       <c r="E868" s="18"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="17"/>
       <c r="E869" s="18"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="17"/>
       <c r="E870" s="18"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="17"/>
       <c r="E871" s="18"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="17"/>
       <c r="E872" s="18"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="17"/>
       <c r="E873" s="18"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="17"/>
       <c r="E874" s="18"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="17"/>
       <c r="E875" s="18"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="17"/>
       <c r="E876" s="18"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="17"/>
       <c r="E877" s="18"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="17"/>
       <c r="E878" s="18"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="17"/>
       <c r="E879" s="18"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="17"/>
       <c r="E880" s="18"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="17"/>
       <c r="E881" s="18"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="17"/>
       <c r="E882" s="18"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="17"/>
       <c r="E883" s="18"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="17"/>
       <c r="E884" s="18"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="17"/>
       <c r="E885" s="18"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="17"/>
       <c r="E886" s="18"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="17"/>
       <c r="E887" s="18"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="17"/>
       <c r="E888" s="18"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="17"/>
       <c r="E889" s="18"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="17"/>
       <c r="E890" s="18"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="17"/>
       <c r="E891" s="18"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="17"/>
       <c r="E892" s="18"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="17"/>
       <c r="E893" s="18"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="17"/>
       <c r="E894" s="18"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="17"/>
       <c r="E895" s="18"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="17"/>
       <c r="E896" s="18"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="17"/>
       <c r="E897" s="18"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="17"/>
       <c r="E898" s="18"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="17"/>
       <c r="E899" s="18"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="17"/>
       <c r="E900" s="18"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="17"/>
       <c r="E901" s="18"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="17"/>
       <c r="E902" s="18"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="17"/>
       <c r="E903" s="18"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="17"/>
       <c r="E904" s="18"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="17"/>
       <c r="E905" s="18"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="17"/>
       <c r="E906" s="18"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="17"/>
       <c r="E907" s="18"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="17"/>
       <c r="E908" s="18"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="17"/>
       <c r="E909" s="18"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="17"/>
       <c r="E910" s="18"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="17"/>
       <c r="E911" s="18"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="17"/>
       <c r="E912" s="18"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="17"/>
       <c r="E913" s="18"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="17"/>
       <c r="E914" s="18"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="17"/>
       <c r="E915" s="18"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="17"/>
       <c r="E916" s="18"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="17"/>
       <c r="E917" s="18"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="17"/>
       <c r="E918" s="18"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="17"/>
       <c r="E919" s="18"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="17"/>
       <c r="E920" s="18"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="17"/>
       <c r="E921" s="18"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="17"/>
       <c r="E922" s="18"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="17"/>
       <c r="E923" s="18"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="17"/>
       <c r="E924" s="18"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="17"/>
       <c r="E925" s="18"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="17"/>
       <c r="E926" s="18"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="17"/>
       <c r="E927" s="18"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="17"/>
       <c r="E928" s="18"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="17"/>
       <c r="E929" s="18"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="17"/>
       <c r="E930" s="18"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="17"/>
       <c r="E931" s="18"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="17"/>
       <c r="E932" s="18"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="17"/>
       <c r="E933" s="18"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="17"/>
       <c r="E934" s="18"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="17"/>
       <c r="E935" s="18"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="17"/>
       <c r="E936" s="18"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="17"/>
       <c r="E937" s="18"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="17"/>
       <c r="E938" s="18"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="17"/>
       <c r="E939" s="18"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="17"/>
       <c r="E940" s="18"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="17"/>
       <c r="E941" s="18"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="17"/>
       <c r="E942" s="18"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="17"/>
       <c r="E943" s="18"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="17"/>
       <c r="E944" s="18"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="17"/>
       <c r="E945" s="18"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="17"/>
       <c r="E946" s="18"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="17"/>
       <c r="E947" s="18"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="17"/>
       <c r="E948" s="18"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="17"/>
       <c r="E949" s="18"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="17"/>
       <c r="E950" s="18"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="17"/>
       <c r="E951" s="18"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="17"/>
       <c r="E952" s="18"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="17"/>
       <c r="E953" s="18"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="17"/>
       <c r="E954" s="18"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="17"/>
       <c r="E955" s="18"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="17"/>
       <c r="E956" s="18"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="17"/>
       <c r="E957" s="18"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="17"/>
       <c r="E958" s="18"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="17"/>
       <c r="E959" s="18"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="17"/>
       <c r="E960" s="18"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="17"/>
       <c r="E961" s="18"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="17"/>
       <c r="E962" s="18"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="17"/>
       <c r="E963" s="18"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="17"/>
       <c r="E964" s="18"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="17"/>
       <c r="E965" s="18"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="17"/>
       <c r="E966" s="18"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="17"/>
       <c r="E967" s="18"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="17"/>
       <c r="E968" s="18"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="17"/>
       <c r="E969" s="18"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="17"/>
       <c r="E970" s="18"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="17"/>
       <c r="E971" s="18"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="17"/>
       <c r="E972" s="18"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="17"/>
       <c r="E973" s="18"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="17"/>
       <c r="E974" s="18"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="17"/>
       <c r="E975" s="18"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="17"/>
       <c r="E976" s="18"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="17"/>
       <c r="E977" s="18"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="17"/>
       <c r="E978" s="18"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="17"/>
       <c r="E979" s="18"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="17"/>
       <c r="E980" s="18"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="17"/>
       <c r="E981" s="18"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="17"/>
       <c r="E982" s="18"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="17"/>
       <c r="E983" s="18"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="17"/>
       <c r="E984" s="18"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="17"/>
       <c r="E985" s="18"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="17"/>
       <c r="E986" s="18"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="17"/>
       <c r="E987" s="18"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="17"/>
       <c r="E988" s="18"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="17"/>
       <c r="E989" s="18"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="17"/>
       <c r="E990" s="18"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="17"/>
       <c r="E991" s="18"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="17"/>
       <c r="E992" s="18"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="17"/>
       <c r="E993" s="18"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="17"/>
       <c r="E994" s="18"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="17"/>
       <c r="E995" s="18"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="17"/>
       <c r="E996" s="18"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="17"/>
       <c r="E997" s="18"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="17"/>
       <c r="E998" s="18"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="17"/>
       <c r="E999" s="18"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="17"/>
       <c r="E1000" s="18"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.63"/>
+    <col min="1" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.63"/>
+    <col min="1" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data_sources/AnalyticsJobs&Salary.xlsx
+++ b/Data_sources/AnalyticsJobs&Salary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>SNo.</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>8,00,000 - 12,00,000</t>
-  </si>
-  <si>
-    <t>Tableau Developer</t>
-  </si>
-  <si>
-    <t>8,00,000 - 12,00,001</t>
   </si>
 </sst>
 </file>
@@ -641,7 +635,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -774,21 +768,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1000000</v>
-      </c>
+      <c r="A8" s="17"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
